--- a/ProductBacklog_v.28.10.xlsx
+++ b/ProductBacklog_v.28.10.xlsx
@@ -246,9 +246,6 @@
     <t>Tidscounter for spil/tur</t>
   </si>
   <si>
-    <t>Resign af spil</t>
-  </si>
-  <si>
     <t>Rematch</t>
   </si>
   <si>
@@ -297,7 +294,10 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Revideret 28/10 kl. 9.20</t>
+    <t>Resign af spil + force quit af spil</t>
+  </si>
+  <si>
+    <t>Revideret 28/10 kl. 11:58</t>
   </si>
 </sst>
 </file>
@@ -723,7 +723,7 @@
   <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -732,13 +732,13 @@
     <col min="2" max="2" width="7.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="4.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -749,10 +749,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -1031,7 +1031,7 @@
       <c r="A32" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="7"/>
+      <c r="B32" s="4"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6">
         <v>2</v>
@@ -1100,7 +1100,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="6"/>
@@ -1129,7 +1129,7 @@
       <c r="A42" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="2"/>
+      <c r="B42" s="7"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6">
         <v>5</v>
@@ -1166,7 +1166,7 @@
       <c r="A46" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B46" s="2"/>
+      <c r="B46" s="4"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6">
         <v>4</v>
@@ -1219,9 +1219,9 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B51" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="B51" s="7"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6">
         <v>1</v>
@@ -1230,7 +1230,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="6"/>
@@ -1241,7 +1241,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="6"/>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="6"/>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="6"/>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="6"/>
@@ -1334,7 +1334,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="6"/>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="6"/>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="6"/>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="6"/>
@@ -1378,7 +1378,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="6"/>
@@ -1389,7 +1389,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="6"/>

--- a/ProductBacklog_v.28.10.xlsx
+++ b/ProductBacklog_v.28.10.xlsx
@@ -297,7 +297,7 @@
     <t>Resign af spil + force quit af spil</t>
   </si>
   <si>
-    <t>Revideret 28/10 kl. 11:58</t>
+    <t>Revideret 28/10 kl. 14:12</t>
   </si>
 </sst>
 </file>
@@ -901,7 +901,7 @@
       <c r="A19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="4"/>
+      <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6">
         <v>5</v>
@@ -1020,7 +1020,7 @@
       <c r="A31" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="4"/>
+      <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6">
         <v>8</v>
